--- a/mapping/Vertebrate_Mammalian.xlsx
+++ b/mapping/Vertebrate_Mammalian.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>狮尾狒属</t>
+          <t>狒狒属</t>
         </is>
       </c>
     </row>
@@ -940,1380 +940,1464 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Notamacropus</t>
+          <t>Gracilinanus</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>大袋鼠属</t>
+          <t>细负鼠属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ailuropoda</t>
+          <t>Herpailurus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>大熊猫属</t>
+          <t>美洲狮属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carlito</t>
+          <t>Acomys</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>眼镜猴属</t>
+          <t>棘鼠属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Callithrix</t>
+          <t>Peromyscus</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>狨属</t>
+          <t>鹿鼠属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Canis</t>
+          <t>Elephas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>犬属</t>
+          <t>象属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Otolemur</t>
+          <t>Sminthopsis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>婴猴属</t>
+          <t>狭足袋鼩属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sapajus</t>
+          <t>Jaculus</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>僧面猴属</t>
+          <t>跳鼠属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cricetulus</t>
+          <t>Meriones</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>仓鼠属</t>
+          <t>沙鼠属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enhydra</t>
+          <t>Macrotis</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>海獭属</t>
+          <t>兔耳袋狸属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tupaia</t>
+          <t>Callithrix</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>树鼩属</t>
+          <t>狨属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Herpailurus</t>
+          <t>Sapajus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>美洲金猫属</t>
+          <t>僧面猴属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Acomys</t>
+          <t>Pteropus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>棘鼠属</t>
+          <t>狐蝠属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Phyllostomus</t>
+          <t>Tupaia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>叶鼻蝠属</t>
+          <t>树鼩属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Grammomys</t>
+          <t>Sus</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>家鼠属</t>
+          <t>猪属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Delphinus</t>
+          <t>Phacochoerus</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>海豚属</t>
+          <t>疣猪属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Globicephala</t>
+          <t>Eschrichtius</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>领航鲸属</t>
+          <t>灰鲸属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Camelus</t>
+          <t>Mastomys</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>骆驼属</t>
+          <t>多乳鼠属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dama</t>
+          <t>Notamacropus</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>黇鹿属</t>
+          <t>大袋鼠属</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dromiciops</t>
+          <t>Ailuropoda</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>山绒鼠属</t>
+          <t>大熊猫属</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Onychomys</t>
+          <t>Carlito</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>禾鼠属</t>
+          <t>眼镜猴属</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Diceros</t>
+          <t>Canis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>黑犀属</t>
+          <t>犬属</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Macrotis</t>
+          <t>Otolemur</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>兔耳袋狸属</t>
+          <t>婴猴属</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Marmota</t>
+          <t>Cricetulus</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>旱獭属</t>
+          <t>仓鼠属</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Neogale</t>
+          <t>Enhydra</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>鼬貂属</t>
+          <t>海獭属</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Trichosurus</t>
+          <t>Phyllostomus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>袋貂属</t>
+          <t>叶鼻蝠属</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Monodelphis</t>
+          <t>Grammomys</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>短尾负鼠属</t>
+          <t>家鼠属</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Vicugna</t>
+          <t>Delphinus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>骆马属</t>
+          <t>海豚属</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Callorhinus</t>
+          <t>Globicephala</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>海狗属</t>
+          <t>领航鲸属</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lynx</t>
+          <t>Camelus</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>猞猁属</t>
+          <t>骆驼属</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Prionailurus</t>
+          <t>Dama</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>豹猫属</t>
+          <t>黇鹿属</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Manis</t>
+          <t>Dromiciops</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>穿山甲属</t>
+          <t>山绒鼠属</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Suncus</t>
+          <t>Onychomys</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>臭鼩属</t>
+          <t>禾鼠属</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Panthera</t>
+          <t>Diceros</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>豹属</t>
+          <t>黑犀属</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Eschrichtius</t>
+          <t>Marmota</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>灰鲸属</t>
+          <t>旱獭属</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Budorcas</t>
+          <t>Neogale</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>羚牛属</t>
+          <t>鼬貂属</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sminthopsis</t>
+          <t>Trichosurus</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>狭足袋鼩属</t>
+          <t>袋貂属</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dasypus</t>
+          <t>Monodelphis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>犰狳属</t>
+          <t>短尾负鼠属</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ovis</t>
+          <t>Vicugna</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>羊属</t>
+          <t>骆马属</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Perognathus</t>
+          <t>Callorhinus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>小囊鼠属</t>
+          <t>海狗属</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lepus</t>
+          <t>Lynx</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>兔属</t>
+          <t>猞猁属</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Choloepus</t>
+          <t>Prionailurus</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>树懒属</t>
+          <t>豹猫属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Pseudorca</t>
+          <t>Manis</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>伪虎鲸属</t>
+          <t>穿山甲属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gracilinanus</t>
+          <t>Suncus</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>细负鼠属</t>
+          <t>臭鼩属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mirounga</t>
+          <t>Panthera</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>象海豹属</t>
+          <t>豹属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bos</t>
+          <t>Budorcas</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>牛属</t>
+          <t>羚牛属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Capricornis</t>
+          <t>Dasypus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>斑羚属</t>
+          <t>犰狳属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tachyglossus</t>
+          <t>Ovis</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>针鼹属</t>
+          <t>羊属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Meles</t>
+          <t>Perognathus</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>獾属</t>
+          <t>小囊鼠属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Muntiacus</t>
+          <t>Lepus</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>麂属</t>
+          <t>兔属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cynocephalus</t>
+          <t>Choloepus</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>鼯猴属</t>
+          <t>树懒属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Apodemus</t>
+          <t>Pseudorca</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>姬鼠属</t>
+          <t>伪虎鲸属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Meriones</t>
+          <t>Mirounga</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>沙鼠属</t>
+          <t>象海豹属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Elephas</t>
+          <t>Bos</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>象属</t>
+          <t>牛属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lemur</t>
+          <t>Capricornis</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>狐猴属</t>
+          <t>斑羚属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Physeter</t>
+          <t>Tachyglossus</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>抹香鲸属</t>
+          <t>针鼹属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Microtus</t>
+          <t>Meles</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>田鼠属</t>
+          <t>獾属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rattus</t>
+          <t>Muntiacus</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>家鼠属</t>
+          <t>麂属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chrysochloris</t>
+          <t>Cynocephalus</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>金鼹属</t>
+          <t>鼯猴属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Saccopteryx</t>
+          <t>Apodemus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>囊翼蝠属</t>
+          <t>姬鼠属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mesocricetus</t>
+          <t>Lemur</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>中仓鼠属</t>
+          <t>狐猴属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cervus</t>
+          <t>Physeter</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>鹿属</t>
+          <t>抹香鲸属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Moschus</t>
+          <t>Microtus</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>麝属</t>
+          <t>田鼠属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Propithecus</t>
+          <t>Cervus</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>冕狐猴属</t>
+          <t>鹿属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Rattus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>宽吻海豚属</t>
+          <t>家鼠属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Odocoileus</t>
+          <t>Chrysochloris</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>空齿鹿属</t>
+          <t>金鼹属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Capra</t>
+          <t>Saccopteryx</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山羊属</t>
+          <t>囊翼蝠属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Eumetopias</t>
+          <t>Mesocricetus</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>北海狮属</t>
+          <t>中仓鼠属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Trichechus</t>
+          <t>Moschus</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>海牛属</t>
+          <t>麝属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Myodes</t>
+          <t>Propithecus</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>䶄属</t>
+          <t>冕狐猴属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nycticebus</t>
+          <t>Tursiops</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>懒猴属</t>
+          <t>宽吻海豚属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Felis</t>
+          <t>Odocoileus</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>猫属</t>
+          <t>空齿鹿属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Monodon</t>
+          <t>Capra</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>一角鲸属</t>
+          <t>山羊属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bubalus</t>
+          <t>Eumetopias</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>水牛属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Balaenoptera</t>
+          <t>Trichechus</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>须鲸属</t>
+          <t>海牛属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Oryctolagus</t>
+          <t>Myodes</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>穴兔属</t>
+          <t>䶄属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sciurus</t>
+          <t>Nycticebus</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>松鼠属</t>
+          <t>懒猴属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hyaena</t>
+          <t>Felis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>鬣狗属</t>
+          <t>猫属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Arvicola</t>
+          <t>Monodon</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>田鼠属</t>
+          <t>一角鲸属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Eptesicus</t>
+          <t>Bubalus</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>棕蝠属</t>
+          <t>水牛属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Acinonyx</t>
+          <t>Balaenoptera</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>猎豹属</t>
+          <t>须鲸属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Oryctolagus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>河狸属</t>
+          <t>穴兔属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nannospalax</t>
+          <t>Sciurus</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>盲鼹形鼠属</t>
+          <t>松鼠属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Odobenus</t>
+          <t>Hyaena</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>海象属</t>
+          <t>鬣狗属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Eubalaena</t>
+          <t>Arvicola</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>露脊鲸属</t>
+          <t>田鼠属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lipotes</t>
+          <t>Eptesicus</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>白鱀豚属</t>
+          <t>棕蝠属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Suricata</t>
+          <t>Acinonyx</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>狐獴属</t>
+          <t>猎豹属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Octodon</t>
+          <t>Castor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>八齿鼠属</t>
+          <t>河狸属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mastomys</t>
+          <t>Nannospalax</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>多乳鼠属</t>
+          <t>盲鼹形鼠属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Talpa</t>
+          <t>Odobenus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>鼹属</t>
+          <t>海象属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Desmodus</t>
+          <t>Eubalaena</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>吸血蝠属</t>
+          <t>露脊鲸属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Erinaceus</t>
+          <t>Lipotes</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>猬属</t>
+          <t>白鱀豚属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Phoca</t>
+          <t>Suricata</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>斑海豹属</t>
+          <t>狐獴属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Orcinus</t>
+          <t>Octodon</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>虎鲸属</t>
+          <t>八齿鼠属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sus</t>
+          <t>Talpa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>猪属</t>
+          <t>鼹属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ceratotherium</t>
+          <t>Desmodus</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>白犀属</t>
+          <t>吸血蝠属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Zalophus</t>
+          <t>Erinaceus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>海狮属</t>
+          <t>猬属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Delphinapterus</t>
+          <t>Phoca</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>白鲸属</t>
+          <t>海豹属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Orycteropus</t>
+          <t>Orcinus</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>土豚属</t>
+          <t>虎鲸属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lutra</t>
+          <t>Ceratotherium</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>水獭属</t>
+          <t>白犀属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Peromyscus</t>
+          <t>Zalophus</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>鹿鼠属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Neophocaena</t>
+          <t>Delphinapterus</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>江豚属</t>
+          <t>白鲸属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Leptonychotes</t>
+          <t>Orycteropus</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>威德尔海豹属</t>
+          <t>土豚属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Neofelis</t>
+          <t>Lutra</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>云豹属</t>
+          <t>水獭属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cavia</t>
+          <t>Neophocaena</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>豚鼠属</t>
+          <t>江豚属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Brachylagus</t>
+          <t>Leptonychotes</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>侏兔属</t>
+          <t>威德尔海豹属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Neomonachus</t>
+          <t>Neofelis</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>僧海豹属</t>
+          <t>云豹属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sagmatias</t>
+          <t>Cavia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>斑纹海豚属</t>
+          <t>豚鼠属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Pteropus</t>
+          <t>Brachylagus</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>狐蝠属</t>
+          <t>侏兔属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lagenorhynchus</t>
+          <t>Neomonachus</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>斑纹海豚属</t>
+          <t>僧海豹属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nyctereutes</t>
+          <t>Sagmatias</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>貉属</t>
+          <t>斑纹海豚属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hipposideros</t>
+          <t>Lagenorhynchus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>蹄蝠属</t>
+          <t>斑纹海豚属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Phocoena</t>
+          <t>Nyctereutes</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>鼠海豚属</t>
+          <t>貉属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Petaurus</t>
+          <t>Hipposideros</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>袋鼯属</t>
+          <t>蹄蝠属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ictidomys</t>
+          <t>Phocoena</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>黄鼠属</t>
+          <t>鼠海豚属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>Petaurus</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>袋鼯属</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Ictidomys</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>黄鼠属</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
           <t>Mesoplodon</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>中喙鲸属</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Lontra</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>水獭属</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Leopardus</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>虎猫属</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Fukomys</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>隐鼠属</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Pipistrellus</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>伏翼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Molossus</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>皱唇蝠属</t>
         </is>
       </c>
     </row>

--- a/mapping/Vertebrate_Mammalian.xlsx
+++ b/mapping/Vertebrate_Mammalian.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1744,523 +1744,523 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Moschus</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>麝属</t>
+          <t>美洲狮属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Propithecus</t>
+          <t>Hyaena</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>冕狐猴属</t>
+          <t>鬣狗属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Moschus</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>宽吻海豚属</t>
+          <t>麝属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Odocoileus</t>
+          <t>Propithecus</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>空齿鹿属</t>
+          <t>冕狐猴属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Capra</t>
+          <t>Tursiops</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山羊属</t>
+          <t>宽吻海豚属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eumetopias</t>
+          <t>Odocoileus</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>海狮属</t>
+          <t>空齿鹿属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Trichechus</t>
+          <t>Capra</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>海牛属</t>
+          <t>山羊属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Myodes</t>
+          <t>Eumetopias</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>䶄属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nycticebus</t>
+          <t>Trichechus</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>懒猴属</t>
+          <t>海牛属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Felis</t>
+          <t>Myodes</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>猫属</t>
+          <t>䶄属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Monodon</t>
+          <t>Nycticebus</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>一角鲸属</t>
+          <t>懒猴属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bubalus</t>
+          <t>Felis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>水牛属</t>
+          <t>猫属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Balaenoptera</t>
+          <t>Monodon</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>须鲸属</t>
+          <t>一角鲸属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Oryctolagus</t>
+          <t>Bubalus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>穴兔属</t>
+          <t>水牛属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sciurus</t>
+          <t>Balaenoptera</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>松鼠属</t>
+          <t>须鲸属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hyaena</t>
+          <t>Oryctolagus</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>鬣狗属</t>
+          <t>穴兔属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Arvicola</t>
+          <t>Sciurus</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>田鼠属</t>
+          <t>松鼠属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Eptesicus</t>
+          <t>Arvicola</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>棕蝠属</t>
+          <t>田鼠属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Acinonyx</t>
+          <t>Eptesicus</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>猎豹属</t>
+          <t>棕蝠属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Acinonyx</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>河狸属</t>
+          <t>猎豹属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Nannospalax</t>
+          <t>Castor</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>盲鼹形鼠属</t>
+          <t>河狸属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Odobenus</t>
+          <t>Nannospalax</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>海象属</t>
+          <t>盲鼹形鼠属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Eubalaena</t>
+          <t>Odobenus</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>露脊鲸属</t>
+          <t>海象属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lipotes</t>
+          <t>Eubalaena</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>白鱀豚属</t>
+          <t>露脊鲸属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Suricata</t>
+          <t>Lipotes</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>狐獴属</t>
+          <t>白鱀豚属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Octodon</t>
+          <t>Suricata</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>八齿鼠属</t>
+          <t>狐獴属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Talpa</t>
+          <t>Octodon</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>鼹属</t>
+          <t>八齿鼠属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Desmodus</t>
+          <t>Talpa</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>吸血蝠属</t>
+          <t>鼹属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Erinaceus</t>
+          <t>Desmodus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>猬属</t>
+          <t>吸血蝠属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Phoca</t>
+          <t>Erinaceus</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>海豹属</t>
+          <t>猬属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Orcinus</t>
+          <t>Phoca</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>虎鲸属</t>
+          <t>海豹属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ceratotherium</t>
+          <t>Orcinus</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>白犀属</t>
+          <t>虎鲸属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Zalophus</t>
+          <t>Ceratotherium</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>海狮属</t>
+          <t>白犀属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Delphinapterus</t>
+          <t>Zalophus</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>白鲸属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Orycteropus</t>
+          <t>Delphinapterus</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>土豚属</t>
+          <t>白鲸属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lutra</t>
+          <t>Orycteropus</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>水獭属</t>
+          <t>土豚属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Neophocaena</t>
+          <t>Lutra</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>江豚属</t>
+          <t>水獭属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Leptonychotes</t>
+          <t>Neophocaena</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>威德尔海豹属</t>
+          <t>江豚属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Neofelis</t>
+          <t>Leptonychotes</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>云豹属</t>
+          <t>威德尔海豹属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cavia</t>
+          <t>Neofelis</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>豚鼠属</t>
+          <t>云豹属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Brachylagus</t>
+          <t>Cavia</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>侏兔属</t>
+          <t>豚鼠属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Neomonachus</t>
+          <t>Brachylagus</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>僧海豹属</t>
+          <t>侏兔属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sagmatias</t>
+          <t>Neomonachus</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>斑纹海豚属</t>
+          <t>僧海豹属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lagenorhynchus</t>
+          <t>Sagmatias</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,130 +2272,154 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nyctereutes</t>
+          <t>Lagenorhynchus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>貉属</t>
+          <t>斑纹海豚属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hipposideros</t>
+          <t>Nyctereutes</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>蹄蝠属</t>
+          <t>貉属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Phocoena</t>
+          <t>Hipposideros</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>鼠海豚属</t>
+          <t>蹄蝠属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Petaurus</t>
+          <t>Phocoena</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>袋鼯属</t>
+          <t>鼠海豚属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ictidomys</t>
+          <t>Petaurus</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>黄鼠属</t>
+          <t>袋鼯属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mesoplodon</t>
+          <t>Ictidomys</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>中喙鲸属</t>
+          <t>黄鼠属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lontra</t>
+          <t>Mesoplodon</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>水獭属</t>
+          <t>中喙鲸属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Leopardus</t>
+          <t>Chinchilla</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>虎猫属</t>
+          <t>毛丝鼠属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fukomys</t>
+          <t>Lontra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>隐鼠属</t>
+          <t>水獭属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Pipistrellus</t>
+          <t>Leopardus</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>伏翼属</t>
+          <t>虎猫属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>Fukomys</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>隐鼠属</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Pipistrellus</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>伏翼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
           <t>Molossus</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>皱唇蝠属</t>
         </is>

--- a/mapping/Vertebrate_Mammalian.xlsx
+++ b/mapping/Vertebrate_Mammalian.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,1174 +1252,1198 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Delphinus</t>
+          <t>Tursiops</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>海豚属</t>
+          <t>宽吻海豚属</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Globicephala</t>
+          <t>Dromiciops</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>领航鲸属</t>
+          <t>山绒鼠属</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Camelus</t>
+          <t>Onychomys</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>骆驼属</t>
+          <t>禾鼠属</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Dama</t>
+          <t>Diceros</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>黇鹿属</t>
+          <t>黑犀属</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dromiciops</t>
+          <t>Marmota</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>山绒鼠属</t>
+          <t>旱獭属</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Onychomys</t>
+          <t>Saccopteryx</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>禾鼠属</t>
+          <t>囊翼蝠属</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Diceros</t>
+          <t>Trichosurus</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>黑犀属</t>
+          <t>袋貂属</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Marmota</t>
+          <t>Camelus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>旱獭属</t>
+          <t>骆驼属</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Neogale</t>
+          <t>Monodelphis</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>鼬貂属</t>
+          <t>短尾负鼠属</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trichosurus</t>
+          <t>Manis</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>袋貂属</t>
+          <t>穿山甲属</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Monodelphis</t>
+          <t>Perognathus</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>短尾负鼠属</t>
+          <t>小囊鼠属</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Vicugna</t>
+          <t>Bubalus</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>骆马属</t>
+          <t>水牛属</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Callorhinus</t>
+          <t>Microtus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>海狗属</t>
+          <t>田鼠属</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lynx</t>
+          <t>Ovis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>猞猁属</t>
+          <t>羊属</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Prionailurus</t>
+          <t>Condylura</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>豹猫属</t>
+          <t>星鼻鼹属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Manis</t>
+          <t>Cervus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>穿山甲属</t>
+          <t>鹿属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Suncus</t>
+          <t>Vicugna</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>臭鼩属</t>
+          <t>骆马属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Panthera</t>
+          <t>Desmodus</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>豹属</t>
+          <t>吸血蝠属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Budorcas</t>
+          <t>Lepus</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>羚牛属</t>
+          <t>兔属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dasypus</t>
+          <t>Choloepus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>犰狳属</t>
+          <t>树懒属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ovis</t>
+          <t>Pseudorca</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>羊属</t>
+          <t>伪虎鲸属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Perognathus</t>
+          <t>Mirounga</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>小囊鼠属</t>
+          <t>象海豹属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lepus</t>
+          <t>Bos</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>兔属</t>
+          <t>牛属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Choloepus</t>
+          <t>Dama</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>树懒属</t>
+          <t>黇鹿属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Pseudorca</t>
+          <t>Castor</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>伪虎鲸属</t>
+          <t>河狸属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mirounga</t>
+          <t>Panthera</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>象海豹属</t>
+          <t>豹属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bos</t>
+          <t>Muntiacus</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>牛属</t>
+          <t>麂属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Capricornis</t>
+          <t>Sarcophilus</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>斑羚属</t>
+          <t>袋獾属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tachyglossus</t>
+          <t>Erinaceus</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>针鼹属</t>
+          <t>猬属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Meles</t>
+          <t>Prionailurus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>獾属</t>
+          <t>豹猫属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Muntiacus</t>
+          <t>Budorcas</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>麂属</t>
+          <t>羚牛属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cynocephalus</t>
+          <t>Lemur</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>鼯猴属</t>
+          <t>狐猴属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Apodemus</t>
+          <t>Orcinus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>姬鼠属</t>
+          <t>虎鲸属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lemur</t>
+          <t>Meles</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>狐猴属</t>
+          <t>獾属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Physeter</t>
+          <t>Delphinus</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>抹香鲸属</t>
+          <t>海豚属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Microtus</t>
+          <t>Globicephala</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>田鼠属</t>
+          <t>领航鲸属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cervus</t>
+          <t>Neogale</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>鹿属</t>
+          <t>鼬貂属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rattus</t>
+          <t>Callorhinus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>家鼠属</t>
+          <t>海狗属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Chrysochloris</t>
+          <t>Lynx</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>金鼹属</t>
+          <t>猞猁属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Saccopteryx</t>
+          <t>Suncus</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>囊翼蝠属</t>
+          <t>臭鼩属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mesocricetus</t>
+          <t>Dasypus</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>中仓鼠属</t>
+          <t>犰狳属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>Capricornis</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>美洲狮属</t>
+          <t>斑羚属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hyaena</t>
+          <t>Tachyglossus</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>鬣狗属</t>
+          <t>针鼹属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Moschus</t>
+          <t>Cynocephalus</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>麝属</t>
+          <t>鼯猴属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Propithecus</t>
+          <t>Apodemus</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>冕狐猴属</t>
+          <t>姬鼠属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Physeter</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>宽吻海豚属</t>
+          <t>抹香鲸属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Odocoileus</t>
+          <t>Rattus</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>空齿鹿属</t>
+          <t>家鼠属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Capra</t>
+          <t>Chrysochloris</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>山羊属</t>
+          <t>金鼹属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Eumetopias</t>
+          <t>Mesocricetus</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>海狮属</t>
+          <t>中仓鼠属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Trichechus</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>海牛属</t>
+          <t>美洲狮属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Myodes</t>
+          <t>Hyaena</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>䶄属</t>
+          <t>鬣狗属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nycticebus</t>
+          <t>Moschus</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>懒猴属</t>
+          <t>麝属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Felis</t>
+          <t>Propithecus</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>猫属</t>
+          <t>冕狐猴属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Monodon</t>
+          <t>Odocoileus</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>一角鲸属</t>
+          <t>空齿鹿属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Bubalus</t>
+          <t>Capra</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>水牛属</t>
+          <t>山羊属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Balaenoptera</t>
+          <t>Eumetopias</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>须鲸属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Oryctolagus</t>
+          <t>Trichechus</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>穴兔属</t>
+          <t>海牛属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sciurus</t>
+          <t>Myodes</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>松鼠属</t>
+          <t>䶄属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Arvicola</t>
+          <t>Nycticebus</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>田鼠属</t>
+          <t>懒猴属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Eptesicus</t>
+          <t>Felis</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>棕蝠属</t>
+          <t>猫属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Acinonyx</t>
+          <t>Monodon</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>猎豹属</t>
+          <t>一角鲸属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Balaenoptera</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>河狸属</t>
+          <t>须鲸属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nannospalax</t>
+          <t>Oryctolagus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>盲鼹形鼠属</t>
+          <t>穴兔属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Odobenus</t>
+          <t>Sciurus</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>海象属</t>
+          <t>松鼠属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Eubalaena</t>
+          <t>Arvicola</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>露脊鲸属</t>
+          <t>田鼠属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Lipotes</t>
+          <t>Eptesicus</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>白鱀豚属</t>
+          <t>棕蝠属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Suricata</t>
+          <t>Acinonyx</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>狐獴属</t>
+          <t>猎豹属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Octodon</t>
+          <t>Nannospalax</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>八齿鼠属</t>
+          <t>盲鼹形鼠属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Talpa</t>
+          <t>Odobenus</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>鼹属</t>
+          <t>海象属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Desmodus</t>
+          <t>Eubalaena</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>吸血蝠属</t>
+          <t>露脊鲸属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Erinaceus</t>
+          <t>Lipotes</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>猬属</t>
+          <t>白鱀豚属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Phoca</t>
+          <t>Suricata</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>海豹属</t>
+          <t>狐獴属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Orcinus</t>
+          <t>Octodon</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>虎鲸属</t>
+          <t>八齿鼠属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ceratotherium</t>
+          <t>Talpa</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>白犀属</t>
+          <t>鼹属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Zalophus</t>
+          <t>Phoca</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>海狮属</t>
+          <t>海豹属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Delphinapterus</t>
+          <t>Ceratotherium</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>白鲸属</t>
+          <t>白犀属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Orycteropus</t>
+          <t>Zalophus</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>土豚属</t>
+          <t>海狮属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Lutra</t>
+          <t>Delphinapterus</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>水獭属</t>
+          <t>白鲸属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Neophocaena</t>
+          <t>Orycteropus</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>江豚属</t>
+          <t>土豚属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Leptonychotes</t>
+          <t>Lutra</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>威德尔海豹属</t>
+          <t>水獭属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Neofelis</t>
+          <t>Neophocaena</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>云豹属</t>
+          <t>江豚属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cavia</t>
+          <t>Leptonychotes</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>豚鼠属</t>
+          <t>威德尔海豹属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Brachylagus</t>
+          <t>Neofelis</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>侏兔属</t>
+          <t>云豹属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Neomonachus</t>
+          <t>Cavia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>僧海豹属</t>
+          <t>豚鼠属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sagmatias</t>
+          <t>Brachylagus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>斑纹海豚属</t>
+          <t>侏兔属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lagenorhynchus</t>
+          <t>Neomonachus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>斑纹海豚属</t>
+          <t>僧海豹属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nyctereutes</t>
+          <t>Sagmatias</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>貉属</t>
+          <t>斑纹海豚属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hipposideros</t>
+          <t>Lagenorhynchus</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>蹄蝠属</t>
+          <t>斑纹海豚属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Phocoena</t>
+          <t>Nyctereutes</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>鼠海豚属</t>
+          <t>貉属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Petaurus</t>
+          <t>Hipposideros</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>袋鼯属</t>
+          <t>蹄蝠属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ictidomys</t>
+          <t>Phocoena</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>黄鼠属</t>
+          <t>鼠海豚属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mesoplodon</t>
+          <t>Petaurus</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>中喙鲸属</t>
+          <t>袋鼯属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Chinchilla</t>
+          <t>Ictidomys</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>毛丝鼠属</t>
+          <t>黄鼠属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lontra</t>
+          <t>Mesoplodon</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>水獭属</t>
+          <t>中喙鲸属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Leopardus</t>
+          <t>Chinchilla</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>虎猫属</t>
+          <t>毛丝鼠属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fukomys</t>
+          <t>Lontra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>隐鼠属</t>
+          <t>水獭属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Pipistrellus</t>
+          <t>Leopardus</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>伏翼属</t>
+          <t>虎猫属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>Fukomys</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>隐鼠属</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Pipistrellus</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>伏翼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>Molossus</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>皱唇蝠属</t>
         </is>
